--- a/Assets/ExcelTools/xlsx/CharacterConf.xlsx
+++ b/Assets/ExcelTools/xlsx/CharacterConf.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30240" windowHeight="18500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>道具id</t>
   </si>
@@ -104,6 +104,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fightforce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +186,10 @@
   </si>
   <si>
     <t>equipdrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fightforce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -668,11 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -683,11 +691,13 @@
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="16.1640625" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" customWidth="1"/>
+    <col min="16" max="19" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="42">
+    <row r="1" spans="1:22" ht="42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,81 +761,87 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>100001</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -843,13 +859,13 @@
         <v>-1</v>
       </c>
       <c r="I3">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -881,16 +897,20 @@
       <c r="U3">
         <v>0</v>
       </c>
+      <c r="V3">
+        <f>0.12*I3+0.75*K3*M3</f>
+        <v>9.75</v>
+      </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>100002</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -908,13 +928,13 @@
         <v>-1</v>
       </c>
       <c r="I4">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -946,16 +966,20 @@
       <c r="U4">
         <v>0</v>
       </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V14" si="0">0.12*I4+0.75*K4*M4</f>
+        <v>9.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>100003</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -973,13 +997,13 @@
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -1011,16 +1035,20 @@
       <c r="U5">
         <v>0</v>
       </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>100004</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1038,13 +1066,13 @@
         <v>-1</v>
       </c>
       <c r="I6">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -1076,16 +1104,20 @@
       <c r="U6">
         <v>0</v>
       </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>100005</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1103,13 +1135,13 @@
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1141,16 +1173,20 @@
       <c r="U7">
         <v>0</v>
       </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1">
+    <row r="8" spans="1:22" s="2" customFormat="1">
       <c r="A8" s="2">
         <v>100006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -1168,13 +1204,13 @@
         <v>-1</v>
       </c>
       <c r="I8" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L8" s="2">
         <v>2</v>
@@ -1206,16 +1242,20 @@
       <c r="U8" s="2">
         <v>0</v>
       </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>4.95</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1">
+    <row r="9" spans="1:22" s="2" customFormat="1">
       <c r="A9" s="2">
         <v>100007</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -1224,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>300002</v>
+        <v>300001</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1233,13 +1273,13 @@
         <v>-1</v>
       </c>
       <c r="I9" s="2">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -1271,16 +1311,20 @@
       <c r="U9" s="2">
         <v>0</v>
       </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>7.05</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1">
+    <row r="10" spans="1:22" s="2" customFormat="1">
       <c r="A10" s="2">
         <v>100008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -1298,19 +1342,19 @@
         <v>-1</v>
       </c>
       <c r="I10" s="2">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L10" s="2">
         <v>2</v>
       </c>
       <c r="M10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
         <v>5</v>
@@ -1336,16 +1380,20 @@
       <c r="U10" s="2">
         <v>0</v>
       </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1">
+    <row r="11" spans="1:22" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>100009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -1363,19 +1411,19 @@
         <v>-1</v>
       </c>
       <c r="I11" s="2">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="J11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="2">
         <v>5</v>
@@ -1401,16 +1449,20 @@
       <c r="U11" s="2">
         <v>0</v>
       </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1">
+    <row r="12" spans="1:22" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>100010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
@@ -1428,19 +1480,19 @@
         <v>-1</v>
       </c>
       <c r="I12" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L12" s="2">
         <v>2</v>
       </c>
       <c r="M12" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
         <v>5</v>
@@ -1466,16 +1518,20 @@
       <c r="U12" s="2">
         <v>0</v>
       </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>16.649999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1">
+    <row r="13" spans="1:22" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>100011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -1493,19 +1549,19 @@
         <v>-1</v>
       </c>
       <c r="I13" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2">
         <v>2</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N13" s="2">
         <v>5</v>
@@ -1531,16 +1587,20 @@
       <c r="U13" s="2">
         <v>0</v>
       </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>16.649999999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1">
+    <row r="14" spans="1:22" s="2" customFormat="1">
       <c r="A14" s="2">
         <v>100012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -1558,13 +1618,13 @@
         <v>-1</v>
       </c>
       <c r="I14" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="L14" s="2">
         <v>2</v>
@@ -1595,6 +1655,10 @@
       </c>
       <c r="U14" s="2">
         <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>29.625</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/CharacterConf.xlsx
+++ b/Assets/ExcelTools/xlsx/CharacterConf.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31320" windowHeight="18100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>道具id</t>
   </si>
@@ -277,13 +277,21 @@
   </si>
   <si>
     <t>Prefabs/Character/enemy07</t>
+  </si>
+  <si>
+    <t>outodds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +301,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,8 +360,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -346,7 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -676,11 +704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -691,13 +719,14 @@
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="16.1640625" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="16" max="19" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="19" width="8.83203125" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" customWidth="1"/>
     <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="42">
+    <row r="1" spans="1:23" ht="42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,8 +793,11 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -832,8 +864,11 @@
       <c r="V2" t="s">
         <v>43</v>
       </c>
+      <c r="W2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -901,8 +936,11 @@
         <f>0.12*I3+0.75*K3*M3</f>
         <v>9.75</v>
       </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -970,8 +1008,11 @@
         <f t="shared" ref="V4:V14" si="0">0.12*I4+0.75*K4*M4</f>
         <v>9.75</v>
       </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -1039,8 +1080,11 @@
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -1108,8 +1152,11 @@
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>100005</v>
       </c>
@@ -1177,8 +1224,11 @@
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" s="2" customFormat="1">
+    <row r="8" spans="1:23" s="2" customFormat="1">
       <c r="A8" s="2">
         <v>100006</v>
       </c>
@@ -1212,7 +1262,7 @@
       <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>2</v>
       </c>
       <c r="M8" s="2">
@@ -1246,8 +1296,11 @@
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
+      <c r="W8" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" s="2" customFormat="1">
+    <row r="9" spans="1:23" s="2" customFormat="1">
       <c r="A9" s="2">
         <v>100007</v>
       </c>
@@ -1315,8 +1368,11 @@
         <f t="shared" si="0"/>
         <v>7.05</v>
       </c>
+      <c r="W9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" s="2" customFormat="1">
+    <row r="10" spans="1:23" s="2" customFormat="1">
       <c r="A10" s="2">
         <v>100008</v>
       </c>
@@ -1350,7 +1406,7 @@
       <c r="K10" s="2">
         <v>10</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>2</v>
       </c>
       <c r="M10" s="2">
@@ -1384,8 +1440,11 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
+      <c r="W10" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" s="2" customFormat="1">
+    <row r="11" spans="1:23" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>100009</v>
       </c>
@@ -1453,8 +1512,11 @@
         <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
+      <c r="W11" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" s="2" customFormat="1">
+    <row r="12" spans="1:23" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>100010</v>
       </c>
@@ -1468,10 +1530,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
-        <v>300001</v>
+        <v>300003</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1488,7 +1550,7 @@
       <c r="K12" s="2">
         <v>15</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <v>2</v>
       </c>
       <c r="M12" s="2">
@@ -1522,8 +1584,11 @@
         <f t="shared" si="0"/>
         <v>16.649999999999999</v>
       </c>
+      <c r="W12" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" s="2" customFormat="1">
+    <row r="13" spans="1:23" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>100011</v>
       </c>
@@ -1557,7 +1622,7 @@
       <c r="K13" s="2">
         <v>10</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <v>2</v>
       </c>
       <c r="M13" s="2">
@@ -1591,8 +1656,11 @@
         <f t="shared" si="0"/>
         <v>16.649999999999999</v>
       </c>
+      <c r="W13" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" s="2" customFormat="1">
+    <row r="14" spans="1:23" s="2" customFormat="1">
       <c r="A14" s="2">
         <v>100012</v>
       </c>
@@ -1626,7 +1694,7 @@
       <c r="K14" s="2">
         <v>5</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <v>2</v>
       </c>
       <c r="M14" s="2">
@@ -1659,6 +1727,9 @@
       <c r="V14">
         <f t="shared" si="0"/>
         <v>29.625</v>
+      </c>
+      <c r="W14" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/CharacterConf.xlsx
+++ b/Assets/ExcelTools/xlsx/CharacterConf.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31320" windowHeight="18100" tabRatio="500"/>
+    <workbookView xWindow="1960" yWindow="4860" windowWidth="25000" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>道具id</t>
   </si>
@@ -284,6 +284,46 @@
   </si>
   <si>
     <t>爆率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manarevive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,8 +400,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -372,9 +418,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -704,11 +756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M14" sqref="M14"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -716,17 +768,17 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="16" max="19" width="8.83203125" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" customWidth="1"/>
+    <col min="13" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="21" max="24" width="8.83203125" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" customWidth="1"/>
+    <col min="26" max="26" width="14.1640625" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" customWidth="1"/>
+    <col min="28" max="28" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="42">
+    <row r="1" spans="1:28" ht="42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,53 +803,68 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -823,52 +890,67 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Z2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AB2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -894,53 +976,68 @@
         <v>-1</v>
       </c>
       <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>50</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
         <v>100</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <f>0.12*I3+0.75*K3*M3</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA14" si="0">0.12*L3+0.75*P3*R3</f>
         <v>9.75</v>
       </c>
-      <c r="W3">
+      <c r="AB3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -966,53 +1063,68 @@
         <v>-1</v>
       </c>
       <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>50</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
         <v>100</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V14" si="0">0.12*I4+0.75*K4*M4</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="W4">
+      <c r="AB4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -1038,53 +1150,68 @@
         <v>-1</v>
       </c>
       <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>50</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
         <v>100</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="W5">
+      <c r="AB5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -1110,53 +1237,68 @@
         <v>-1</v>
       </c>
       <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>50</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
         <v>2</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
         <v>100</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="W6">
+      <c r="AB6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>100005</v>
       </c>
@@ -1182,53 +1324,68 @@
         <v>-1</v>
       </c>
       <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>50</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
         <v>100</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="W7">
+      <c r="AB7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="2" customFormat="1">
+    <row r="8" spans="1:28" s="2" customFormat="1">
       <c r="A8" s="2">
         <v>100006</v>
       </c>
@@ -1254,53 +1411,68 @@
         <v>-1</v>
       </c>
       <c r="I8" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>5</v>
-      </c>
-      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>5</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>5</v>
+      </c>
+      <c r="T8" s="2">
         <v>100</v>
       </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8">
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="W8" s="2">
+      <c r="AB8" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1">
+    <row r="9" spans="1:28" s="2" customFormat="1">
       <c r="A9" s="2">
         <v>100007</v>
       </c>
@@ -1326,53 +1498,68 @@
         <v>-1</v>
       </c>
       <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <v>15</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
         <v>7</v>
       </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>5</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>5</v>
+      </c>
+      <c r="T9" s="2">
         <v>100</v>
       </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="0"/>
         <v>7.05</v>
       </c>
-      <c r="W9" s="2">
+      <c r="AB9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="2" customFormat="1">
+    <row r="10" spans="1:28" s="2" customFormat="1">
       <c r="A10" s="2">
         <v>100008</v>
       </c>
@@ -1398,53 +1585,68 @@
         <v>-1</v>
       </c>
       <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>25</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>10</v>
-      </c>
-      <c r="L10">
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q10">
         <v>2</v>
       </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
-        <v>5</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5</v>
+      </c>
+      <c r="T10" s="2">
         <v>100</v>
       </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AB10" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="2" customFormat="1">
+    <row r="11" spans="1:28" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>100009</v>
       </c>
@@ -1470,53 +1672,68 @@
         <v>-1</v>
       </c>
       <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <v>35</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>5</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
       <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
         <v>2</v>
       </c>
-      <c r="N11" s="2">
-        <v>5</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="S11" s="2">
+        <v>5</v>
+      </c>
+      <c r="T11" s="2">
         <v>100</v>
       </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11">
         <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AB11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1">
+    <row r="12" spans="1:28" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>100010</v>
       </c>
@@ -1542,53 +1759,68 @@
         <v>-1</v>
       </c>
       <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <v>45</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
         <v>15</v>
       </c>
-      <c r="L12">
+      <c r="Q12">
         <v>2</v>
       </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
-        <v>5</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>5</v>
+      </c>
+      <c r="T12" s="2">
         <v>100</v>
       </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12">
         <f t="shared" si="0"/>
         <v>16.649999999999999</v>
       </c>
-      <c r="W12" s="2">
+      <c r="AB12" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="2" customFormat="1">
+    <row r="13" spans="1:28" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>100011</v>
       </c>
@@ -1614,53 +1846,68 @@
         <v>-1</v>
       </c>
       <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <v>45</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>10</v>
-      </c>
-      <c r="L13">
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q13">
         <v>2</v>
       </c>
-      <c r="M13" s="2">
+      <c r="R13" s="2">
         <v>1.5</v>
       </c>
-      <c r="N13" s="2">
-        <v>5</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="S13" s="2">
+        <v>5</v>
+      </c>
+      <c r="T13" s="2">
         <v>100</v>
       </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13">
         <f t="shared" si="0"/>
         <v>16.649999999999999</v>
       </c>
-      <c r="W13" s="2">
+      <c r="AB13" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="2" customFormat="1">
+    <row r="14" spans="1:28" s="2" customFormat="1">
       <c r="A14" s="2">
         <v>100012</v>
       </c>
@@ -1686,49 +1933,64 @@
         <v>-1</v>
       </c>
       <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <v>200</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>5</v>
-      </c>
-      <c r="L14">
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q14">
         <v>2</v>
       </c>
-      <c r="M14" s="2">
+      <c r="R14" s="2">
         <v>1.5</v>
       </c>
-      <c r="N14" s="2">
-        <v>5</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="S14" s="2">
+        <v>5</v>
+      </c>
+      <c r="T14" s="2">
         <v>100</v>
       </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14">
         <f t="shared" si="0"/>
         <v>29.625</v>
       </c>
-      <c r="W14" s="2">
+      <c r="AB14" s="2">
         <v>10</v>
       </c>
     </row>

--- a/Assets/ExcelTools/xlsx/CharacterConf.xlsx
+++ b/Assets/ExcelTools/xlsx/CharacterConf.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="4860" windowWidth="25000" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="3600" windowWidth="39220" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>道具id</t>
   </si>
@@ -324,6 +324,22 @@
   </si>
   <si>
     <t>manarevive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reallife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realatk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,29 +772,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1:O1"/>
+      <selection pane="topRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="13" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
-    <col min="21" max="24" width="8.83203125" customWidth="1"/>
-    <col min="25" max="25" width="11.1640625" customWidth="1"/>
-    <col min="26" max="26" width="14.1640625" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" customWidth="1"/>
-    <col min="28" max="28" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="15" max="17" width="11" customWidth="1"/>
+    <col min="18" max="19" width="16.1640625" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
+    <col min="24" max="27" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="14.1640625" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" customWidth="1"/>
+    <col min="31" max="31" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="42">
+    <row r="1" spans="1:31" ht="42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,79 +808,88 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -877,80 +902,89 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>73</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>74</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>75</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>79</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>34</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>38</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>39</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -964,19 +998,19 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>300001</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -985,41 +1019,43 @@
         <v>3</v>
       </c>
       <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
         <v>50</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
-        <v>10</v>
+        <f>E3*E3*M3/2+M3+J3*10</f>
+        <v>105</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
         <v>5</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
+        <f>E3*E3*R3/10+R3+J3*1</f>
+        <v>8.5</v>
+      </c>
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>5</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>100</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
         <v>0</v>
       </c>
@@ -1030,14 +1066,23 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA14" si="0">0.12*L3+0.75*P3*R3</f>
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>0.12*N3+0.75*S3*U3</f>
+        <v>18.975000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -1051,19 +1096,19 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>300001</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1072,41 +1117,43 @@
         <v>3</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
         <v>50</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
       <c r="N4">
-        <v>10</v>
+        <f t="shared" ref="N4:N14" si="0">E4*E4*M4/2+M4+J4*10</f>
+        <v>105</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>5</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
+        <f t="shared" ref="S4:S14" si="1">E4*E4*R4/10+R4+J4*1</f>
+        <v>8.5</v>
+      </c>
+      <c r="T4">
         <v>2</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>5</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>100</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
       <c r="X4">
         <v>0</v>
       </c>
@@ -1117,14 +1164,23 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD14" si="2">0.12*N4+0.75*S4*U4</f>
+        <v>18.975000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -1138,19 +1194,19 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>300002</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1159,41 +1215,43 @@
         <v>3</v>
       </c>
       <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
         <v>50</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
       <c r="N5">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>5</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="T5">
         <v>2</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
         <v>5</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>100</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
       <c r="X5">
         <v>0</v>
       </c>
@@ -1204,14 +1262,23 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="2"/>
+        <v>18.975000000000001</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -1225,19 +1292,19 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>300001</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -1246,41 +1313,43 @@
         <v>3</v>
       </c>
       <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
         <v>50</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
       <c r="N6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="T6">
         <v>2</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>5</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>100</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
         <v>0</v>
       </c>
@@ -1291,14 +1360,23 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="2"/>
+        <v>18.975000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>100005</v>
       </c>
@@ -1312,19 +1390,19 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>300001</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>-1</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1333,41 +1411,43 @@
         <v>3</v>
       </c>
       <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <v>50</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
       <c r="N7">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>5</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="T7">
         <v>2</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
         <v>5</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>100</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
         <v>0</v>
       </c>
@@ -1378,14 +1458,23 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="2"/>
+        <v>18.975000000000001</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" s="2" customFormat="1">
+    <row r="8" spans="1:31" s="2" customFormat="1">
       <c r="A8" s="2">
         <v>100006</v>
       </c>
@@ -1398,21 +1487,21 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>300001</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
       <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>-1</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
@@ -1420,41 +1509,43 @@
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>10</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
         <v>5</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="T8">
         <v>2</v>
       </c>
-      <c r="R8" s="2">
-        <v>1</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
         <v>5</v>
       </c>
-      <c r="T8" s="2">
+      <c r="W8" s="2">
         <v>100</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
       <c r="X8" s="2">
         <v>0</v>
       </c>
@@ -1464,15 +1555,24 @@
       <c r="Z8" s="2">
         <v>0</v>
       </c>
-      <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>4.95</v>
+      <c r="AA8" s="2">
+        <v>0</v>
       </c>
       <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>5.9249999999999998</v>
+      </c>
+      <c r="AE8" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1">
+    <row r="9" spans="1:31" s="2" customFormat="1">
       <c r="A9" s="2">
         <v>100007</v>
       </c>
@@ -1485,21 +1585,21 @@
       <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>300001</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
       <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>-1</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
@@ -1507,41 +1607,43 @@
         <v>0</v>
       </c>
       <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>15</v>
       </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
       <c r="N9">
-        <v>10</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
         <v>7</v>
       </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>7.7</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
         <v>5</v>
       </c>
-      <c r="T9" s="2">
+      <c r="W9" s="2">
         <v>100</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
       <c r="X9" s="2">
         <v>0</v>
       </c>
@@ -1551,15 +1653,24 @@
       <c r="Z9" s="2">
         <v>0</v>
       </c>
-      <c r="AA9">
-        <f t="shared" si="0"/>
-        <v>7.05</v>
+      <c r="AA9" s="2">
+        <v>0</v>
       </c>
       <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>8.4749999999999996</v>
+      </c>
+      <c r="AE9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="2" customFormat="1">
+    <row r="10" spans="1:31" s="2" customFormat="1">
       <c r="A10" s="2">
         <v>100008</v>
       </c>
@@ -1572,21 +1683,21 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <v>300001</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
       <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>-1</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
@@ -1594,41 +1705,43 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
         <v>25</v>
       </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
       <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>10</v>
       </c>
       <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="T10">
         <v>2</v>
       </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
         <v>5</v>
       </c>
-      <c r="T10" s="2">
+      <c r="W10" s="2">
         <v>100</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
       <c r="X10" s="2">
         <v>0</v>
       </c>
@@ -1638,15 +1751,24 @@
       <c r="Z10" s="2">
         <v>0</v>
       </c>
-      <c r="AA10">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
+      <c r="AA10" s="2">
+        <v>0</v>
       </c>
       <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>12.75</v>
+      </c>
+      <c r="AE10" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="2" customFormat="1">
+    <row r="11" spans="1:31" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>100009</v>
       </c>
@@ -1659,21 +1781,21 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>300002</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
       <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>-1</v>
       </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
@@ -1681,41 +1803,43 @@
         <v>0</v>
       </c>
       <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <v>35</v>
       </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
       <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
         <v>5</v>
       </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2">
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
         <v>2</v>
       </c>
-      <c r="S11" s="2">
+      <c r="V11" s="2">
         <v>5</v>
       </c>
-      <c r="T11" s="2">
+      <c r="W11" s="2">
         <v>100</v>
       </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
       <c r="X11" s="2">
         <v>0</v>
       </c>
@@ -1725,15 +1849,24 @@
       <c r="Z11" s="2">
         <v>0</v>
       </c>
-      <c r="AA11">
-        <f t="shared" si="0"/>
-        <v>11.7</v>
+      <c r="AA11" s="2">
+        <v>0</v>
       </c>
       <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>14.55</v>
+      </c>
+      <c r="AE11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="2" customFormat="1">
+    <row r="12" spans="1:31" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>100010</v>
       </c>
@@ -1746,21 +1879,21 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>300003</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
       <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>-1</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
@@ -1768,41 +1901,43 @@
         <v>0</v>
       </c>
       <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
         <v>45</v>
       </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
       <c r="N12">
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
         <v>15</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="T12">
         <v>2</v>
       </c>
-      <c r="R12" s="2">
-        <v>1</v>
-      </c>
-      <c r="S12" s="2">
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2">
         <v>5</v>
       </c>
-      <c r="T12" s="2">
+      <c r="W12" s="2">
         <v>100</v>
       </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
       <c r="X12" s="2">
         <v>0</v>
       </c>
@@ -1812,15 +1947,24 @@
       <c r="Z12" s="2">
         <v>0</v>
       </c>
-      <c r="AA12">
-        <f t="shared" si="0"/>
-        <v>16.649999999999999</v>
+      <c r="AA12" s="2">
+        <v>0</v>
       </c>
       <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="2"/>
+        <v>20.475000000000001</v>
+      </c>
+      <c r="AE12" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="2" customFormat="1">
+    <row r="13" spans="1:31" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>100011</v>
       </c>
@@ -1833,21 +1977,21 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>300001</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
       <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
         <v>-1</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
@@ -1855,41 +1999,43 @@
         <v>0</v>
       </c>
       <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <v>45</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
       <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>10</v>
       </c>
       <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="R13" s="2">
+      <c r="U13" s="2">
         <v>1.5</v>
       </c>
-      <c r="S13" s="2">
+      <c r="V13" s="2">
         <v>5</v>
       </c>
-      <c r="T13" s="2">
+      <c r="W13" s="2">
         <v>100</v>
       </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
       <c r="X13" s="2">
         <v>0</v>
       </c>
@@ -1899,15 +2045,24 @@
       <c r="Z13" s="2">
         <v>0</v>
       </c>
-      <c r="AA13">
-        <f t="shared" si="0"/>
-        <v>16.649999999999999</v>
+      <c r="AA13" s="2">
+        <v>0</v>
       </c>
       <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="2"/>
+        <v>20.475000000000001</v>
+      </c>
+      <c r="AE13" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="2" customFormat="1">
+    <row r="14" spans="1:31" s="2" customFormat="1">
       <c r="A14" s="2">
         <v>100012</v>
       </c>
@@ -1920,21 +2075,21 @@
       <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>300001</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
       <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
         <v>-1</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
@@ -1942,41 +2097,43 @@
         <v>0</v>
       </c>
       <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>200</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
       <c r="N14">
-        <v>10</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>15</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
         <v>5</v>
       </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="S14" s="2">
-        <v>5</v>
-      </c>
-      <c r="T14" s="2">
+      <c r="W14" s="2">
         <v>100</v>
       </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
       <c r="X14" s="2">
         <v>0</v>
       </c>
@@ -1986,11 +2143,20 @@
       <c r="Z14" s="2">
         <v>0</v>
       </c>
-      <c r="AA14">
-        <f t="shared" si="0"/>
-        <v>29.625</v>
+      <c r="AA14" s="2">
+        <v>0</v>
       </c>
       <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="2"/>
+        <v>48.375</v>
+      </c>
+      <c r="AE14" s="2">
         <v>10</v>
       </c>
     </row>
